--- a/bases/tabla8.xlsx
+++ b/bases/tabla8.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\irwin\Documents\GitHub\intro_r_ciencias\bases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01EA81F0-D55B-45D5-B2F4-FC5D40548E74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B5B7845-AB57-4C3A-A08B-EA87BF087C32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{18658454-743C-4875-BFC6-167C3F721735}"/>
   </bookViews>
@@ -25,24 +25,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Función</t>
   </si>
   <si>
     <t>Descripción</t>
-  </si>
-  <si>
-    <t>`pivot_longer()`</t>
-  </si>
-  <si>
-    <t>`pivot_wider()`</t>
-  </si>
-  <si>
-    <t>Pivotar una tabla de columnas a filas (hacia tabla larga)</t>
-  </si>
-  <si>
-    <t>Pivotar una tabla de filas de columnas (hacia tabla ancha)</t>
   </si>
   <si>
     <t>`gather()`</t>
@@ -424,10 +412,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA0FD411-BDF2-40FD-A78A-9EFC2CE3AA28}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A2" sqref="A2:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -453,7 +441,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -466,7 +454,7 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -474,7 +462,7 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -482,23 +470,7 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
         <v>11</v>
-      </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
